--- a/biology/Biochimie/Glucurono-conjugaison/Glucurono-conjugaison.xlsx
+++ b/biology/Biochimie/Glucurono-conjugaison/Glucurono-conjugaison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glucurono-conjugaison, parfois aussi appelée glycurono-conjugaison, est l'addition d'acide glucuronique (un dérivé oxydé du glucose) activé sous forme d'UDP-acide glucuronique, à une molécule (xénobiotique, toxique ou produit de dégradation hydrophobe) grâce à une enzyme glucuronyl-transférase.
 L'acide glucuronique se condense avec un groupement –OH, –SH, –COOH ou –NH2, formant entre autres une liaison éther (R-O-R') ou thioéther (R-S-R').
@@ -515,11 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Métabolisme de la bilirubine
-La bilirubine libre (ou non-conjuguée) présente dans le sérum (liquide sanguin débarrassé de ses cellules) est captée par les hépatocytes (cellules du foie) qui grâce à une enzyme UDP glucuronyl-transférase vont catalyser la réaction de conjugaison de la bilirubine à l'acide glucuronique (ou 2 UDP-glucuronate), vont libérer 2 UDP et se lier à la bilirubine pour former le di-glucuronide de bilirubine (ou bilirubine conjuguée). Cette dernière est soluble et non toxique et pourra donc être éliminée par la vésicule biliaire et se retrouvera dans l'appareil digestif avant d'être éliminée par les selles.
+          <t>Métabolisme de la bilirubine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bilirubine libre (ou non-conjuguée) présente dans le sérum (liquide sanguin débarrassé de ses cellules) est captée par les hépatocytes (cellules du foie) qui grâce à une enzyme UDP glucuronyl-transférase vont catalyser la réaction de conjugaison de la bilirubine à l'acide glucuronique (ou 2 UDP-glucuronate), vont libérer 2 UDP et se lier à la bilirubine pour former le di-glucuronide de bilirubine (ou bilirubine conjuguée). Cette dernière est soluble et non toxique et pourra donc être éliminée par la vésicule biliaire et se retrouvera dans l'appareil digestif avant d'être éliminée par les selles.
 Une mauvaise élimination de la bilirubine (par déficit de glucurono-conjugaison par exemple) va provoquer un ictère (jaunissement de la peau et du blanc des yeux, parfois aussi appelé "jaunisse").
-Défaut de glucurono-conjugaison
-Les félidés présentent un défaut de glucurono-conjugaison. Il y a absence de l'enzyme nécessaire, la glucuronyl-transférase, chez les espèces de cette famille[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Glucurono-conjugaison</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucurono-conjugaison</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples physiologiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Défaut de glucurono-conjugaison</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les félidés présentent un défaut de glucurono-conjugaison. Il y a absence de l'enzyme nécessaire, la glucuronyl-transférase, chez les espèces de cette famille[réf. nécessaire].
 </t>
         </is>
       </c>
